--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H2">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I2">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J2">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>883.8023432713609</v>
+        <v>4726.486550989962</v>
       </c>
       <c r="R2">
-        <v>3535.209373085444</v>
+        <v>18905.94620395985</v>
       </c>
       <c r="S2">
-        <v>0.07977521572443938</v>
+        <v>0.2966376717933847</v>
       </c>
       <c r="T2">
-        <v>0.04479507766810258</v>
+        <v>0.2265347268566869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H3">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I3">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J3">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>225.0218691512857</v>
+        <v>1240.048089051462</v>
       </c>
       <c r="R3">
-        <v>1350.131214907714</v>
+        <v>7440.288534308771</v>
       </c>
       <c r="S3">
-        <v>0.02031129278048168</v>
+        <v>0.07782630376278471</v>
       </c>
       <c r="T3">
-        <v>0.01710768055051177</v>
+        <v>0.08915098523350035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H4">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I4">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J4">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>675.6299326496645</v>
+        <v>2545.528953460804</v>
       </c>
       <c r="R4">
-        <v>4053.779595897987</v>
+        <v>15273.17372076482</v>
       </c>
       <c r="S4">
-        <v>0.06098481638723891</v>
+        <v>0.1597592152418393</v>
       </c>
       <c r="T4">
-        <v>0.05136594546000908</v>
+        <v>0.1830061399594753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H5">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I5">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J5">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>158.7192872565442</v>
+        <v>1260.79583380877</v>
       </c>
       <c r="R5">
-        <v>634.8771490261769</v>
+        <v>5043.18333523508</v>
       </c>
       <c r="S5">
-        <v>0.01432658045876261</v>
+        <v>0.07912844704265552</v>
       </c>
       <c r="T5">
-        <v>0.008044607319964744</v>
+        <v>0.06042840421794847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H6">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I6">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J6">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>683.4508228728442</v>
+        <v>867.4988240761443</v>
       </c>
       <c r="R6">
-        <v>4100.704937237066</v>
+        <v>5204.992944456866</v>
       </c>
       <c r="S6">
-        <v>0.06169075839956933</v>
+        <v>0.05444484580275558</v>
       </c>
       <c r="T6">
-        <v>0.05196054229658956</v>
+        <v>0.06236723844673553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H7">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I7">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J7">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>585.0727682173415</v>
+        <v>4321.841772987854</v>
       </c>
       <c r="R7">
-        <v>3510.436609304048</v>
+        <v>25931.05063792712</v>
       </c>
       <c r="S7">
-        <v>0.05281079718149441</v>
+        <v>0.2712418765118441</v>
       </c>
       <c r="T7">
-        <v>0.04448117889704545</v>
+        <v>0.3107108953975215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H8">
         <v>1.454409</v>
       </c>
       <c r="I8">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J8">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>52.19538708205799</v>
+        <v>50.652583466265</v>
       </c>
       <c r="R8">
-        <v>313.1723224923479</v>
+        <v>303.91550079759</v>
       </c>
       <c r="S8">
-        <v>0.004711345580822156</v>
+        <v>0.003178992316524388</v>
       </c>
       <c r="T8">
-        <v>0.00396824545000032</v>
+        <v>0.003641574678038339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H9">
         <v>1.454409</v>
       </c>
       <c r="I9">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J9">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>13.289287646382</v>
@@ -1013,10 +1013,10 @@
         <v>119.603588817438</v>
       </c>
       <c r="S9">
-        <v>0.001199539463643109</v>
+        <v>0.000834045184448832</v>
       </c>
       <c r="T9">
-        <v>0.001515511949942844</v>
+        <v>0.00143311347824331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H10">
         <v>1.454409</v>
       </c>
       <c r="I10">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J10">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>39.90119072138099</v>
+        <v>27.279802108812</v>
       </c>
       <c r="R10">
-        <v>359.110716492429</v>
+        <v>245.518218979308</v>
       </c>
       <c r="S10">
-        <v>0.003601626677836073</v>
+        <v>0.00171209986471819</v>
       </c>
       <c r="T10">
-        <v>0.004550336554093971</v>
+        <v>0.002941847082118985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H11">
         <v>1.454409</v>
       </c>
       <c r="I11">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J11">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>9.373605647026498</v>
+        <v>13.511636078292</v>
       </c>
       <c r="R11">
-        <v>56.24163388215899</v>
+        <v>81.06981646975201</v>
       </c>
       <c r="S11">
-        <v>0.0008460957569307609</v>
+        <v>0.0008479999308460005</v>
       </c>
       <c r="T11">
-        <v>0.0007126447381342726</v>
+        <v>0.0009713943186006968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H12">
         <v>1.454409</v>
       </c>
       <c r="I12">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J12">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>40.36307498275799</v>
+        <v>9.296769623559003</v>
       </c>
       <c r="R12">
-        <v>363.267674844822</v>
+        <v>83.67092661203101</v>
       </c>
       <c r="S12">
-        <v>0.003643318032098256</v>
+        <v>0.0005834719017140522</v>
       </c>
       <c r="T12">
-        <v>0.004603009890410679</v>
+        <v>0.001002561326548805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H13">
         <v>1.454409</v>
       </c>
       <c r="I13">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J13">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>34.55308739648699</v>
+        <v>46.316105794992</v>
       </c>
       <c r="R13">
-        <v>310.977786568383</v>
+        <v>416.844952154928</v>
       </c>
       <c r="S13">
-        <v>0.003118887409595625</v>
+        <v>0.002906831880582602</v>
       </c>
       <c r="T13">
-        <v>0.003940438212356102</v>
+        <v>0.004994717342326247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H14">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I14">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J14">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>5.928826707543332</v>
+        <v>232.9761503348625</v>
       </c>
       <c r="R14">
-        <v>35.57296024526</v>
+        <v>931.9046013394499</v>
       </c>
       <c r="S14">
-        <v>0.0005351574740528451</v>
+        <v>0.0146217495962713</v>
       </c>
       <c r="T14">
-        <v>0.0004507494037559606</v>
+        <v>0.01116626229882666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H15">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I15">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J15">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>1.509518138034444</v>
+        <v>61.123971664915</v>
       </c>
       <c r="R15">
-        <v>13.58566324231</v>
+        <v>366.7438299894901</v>
       </c>
       <c r="S15">
-        <v>0.000136254600384871</v>
+        <v>0.003836184118972586</v>
       </c>
       <c r="T15">
-        <v>0.0001721456286988788</v>
+        <v>0.00439439594595076</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H16">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I16">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J16">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>4.532340086678333</v>
+        <v>125.47323043139</v>
       </c>
       <c r="R16">
-        <v>40.791060780105</v>
+        <v>752.8393825883401</v>
       </c>
       <c r="S16">
-        <v>0.0004091055097375694</v>
+        <v>0.007874789560073257</v>
       </c>
       <c r="T16">
-        <v>0.0005168686046491011</v>
+        <v>0.009020667998403906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H17">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I17">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J17">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>1.0647393689925</v>
+        <v>62.14666148949001</v>
       </c>
       <c r="R17">
-        <v>6.388436213954999</v>
+        <v>248.58664595796</v>
       </c>
       <c r="S17">
-        <v>9.610725010897646E-05</v>
+        <v>0.003900368862810517</v>
       </c>
       <c r="T17">
-        <v>8.094866984697738E-05</v>
+        <v>0.002978613571348867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H18">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I18">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J18">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>4.584805101265555</v>
+        <v>42.76041712441751</v>
       </c>
       <c r="R18">
-        <v>41.26324591139</v>
+        <v>256.562502746505</v>
       </c>
       <c r="S18">
-        <v>0.0004138411928782017</v>
+        <v>0.002683674319996627</v>
       </c>
       <c r="T18">
-        <v>0.0005228517211769842</v>
+        <v>0.003074181839635945</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H19">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I19">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J19">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>3.924853877648333</v>
+        <v>213.03055615724</v>
       </c>
       <c r="R19">
-        <v>35.323684898835</v>
+        <v>1278.18333694344</v>
       </c>
       <c r="S19">
-        <v>0.0003542715938241892</v>
+        <v>0.01336994985971088</v>
       </c>
       <c r="T19">
-        <v>0.0004475908048370781</v>
+        <v>0.01531544150097095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H20">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I20">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J20">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>144.751350349167</v>
+        <v>14.86388495623833</v>
       </c>
       <c r="R20">
-        <v>579.005401396668</v>
+        <v>89.18330973742998</v>
       </c>
       <c r="S20">
-        <v>0.01306578364316823</v>
+        <v>0.0009328680362582965</v>
       </c>
       <c r="T20">
-        <v>0.007336649456543456</v>
+        <v>0.001068611773967307</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H21">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I21">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J21">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>36.85464251789301</v>
+        <v>3.899711114591778</v>
       </c>
       <c r="R21">
-        <v>221.127855107358</v>
+        <v>35.097400031326</v>
       </c>
       <c r="S21">
-        <v>0.003326634150379586</v>
+        <v>0.0002447486548876349</v>
       </c>
       <c r="T21">
-        <v>0.002801938555472264</v>
+        <v>0.0004205438777674623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H22">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I22">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J22">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>110.6563541406315</v>
+        <v>8.005195637146223</v>
       </c>
       <c r="R22">
-        <v>663.9381248437891</v>
+        <v>72.04676073431601</v>
       </c>
       <c r="S22">
-        <v>0.009988245211224137</v>
+        <v>0.0005024117958309323</v>
       </c>
       <c r="T22">
-        <v>0.008412842559091364</v>
+        <v>0.000863278308728018</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H23">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I23">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J23">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>25.99544041917975</v>
+        <v>3.964958754217333</v>
       </c>
       <c r="R23">
-        <v>103.981761676719</v>
+        <v>23.789752525304</v>
       </c>
       <c r="S23">
-        <v>0.002346443051526446</v>
+        <v>0.0002488436433531125</v>
       </c>
       <c r="T23">
-        <v>0.00131756583523354</v>
+        <v>0.0002850534446765299</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H24">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I24">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J24">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>111.937279032217</v>
+        <v>2.728115817454111</v>
       </c>
       <c r="R24">
-        <v>671.623674193302</v>
+        <v>24.553042357087</v>
       </c>
       <c r="S24">
-        <v>0.01010386615331714</v>
+        <v>0.0001712184972371908</v>
       </c>
       <c r="T24">
-        <v>0.008510227110811137</v>
+        <v>0.0002941993319910315</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H25">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I25">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J25">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>95.8246760678505</v>
+        <v>13.59135548567289</v>
       </c>
       <c r="R25">
-        <v>574.948056407103</v>
+        <v>122.322199371056</v>
       </c>
       <c r="S25">
-        <v>0.008649483974823732</v>
+        <v>0.000853003177792141</v>
       </c>
       <c r="T25">
-        <v>0.007285238333536836</v>
+        <v>0.001465688398987799</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H26">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I26">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J26">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>1941.174017739184</v>
+        <v>8.347211305378332</v>
       </c>
       <c r="R26">
-        <v>11647.04410643511</v>
+        <v>50.08326783227</v>
       </c>
       <c r="S26">
-        <v>0.1752174309140443</v>
+        <v>0.0005238769434509933</v>
       </c>
       <c r="T26">
-        <v>0.1475811445069302</v>
+        <v>0.0006001074622806892</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H27">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I27">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J27">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>494.2356276209442</v>
+        <v>2.189986857357111</v>
       </c>
       <c r="R27">
-        <v>4448.120648588499</v>
+        <v>19.709881716214</v>
       </c>
       <c r="S27">
-        <v>0.04461150630832703</v>
+        <v>0.0001374451393474206</v>
       </c>
       <c r="T27">
-        <v>0.0563626899859424</v>
+        <v>0.0002361676386249823</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H28">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I28">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J28">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>1483.946360689518</v>
+        <v>4.495531263924889</v>
       </c>
       <c r="R28">
-        <v>13355.51724620566</v>
+        <v>40.45978137532401</v>
       </c>
       <c r="S28">
-        <v>0.1339463987041673</v>
+        <v>0.00028214275301931</v>
       </c>
       <c r="T28">
-        <v>0.1692294201571768</v>
+        <v>0.0004847969746481436</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H29">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I29">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J29">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>348.6093456100814</v>
+        <v>2.226628410809333</v>
       </c>
       <c r="R29">
-        <v>2091.656073660489</v>
+        <v>13.359770464856</v>
       </c>
       <c r="S29">
-        <v>0.03146674814943442</v>
+        <v>0.0001397447894130034</v>
       </c>
       <c r="T29">
-        <v>0.02650363426503495</v>
+        <v>0.0001600793697641167</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H30">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I30">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J30">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>1501.124080359996</v>
+        <v>1.532046249071445</v>
       </c>
       <c r="R30">
-        <v>13510.11672323996</v>
+        <v>13.788416241643</v>
       </c>
       <c r="S30">
-        <v>0.1354969221925912</v>
+        <v>9.615231684286803E-05</v>
       </c>
       <c r="T30">
-        <v>0.1711883693594288</v>
+        <v>0.0001652154868838394</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H31">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I31">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J31">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>1285.047572906844</v>
+        <v>7.632588418131555</v>
       </c>
       <c r="R31">
-        <v>11565.42815616159</v>
+        <v>68.69329576318401</v>
       </c>
       <c r="S31">
-        <v>0.1159930703118024</v>
+        <v>0.0004790267006340005</v>
       </c>
       <c r="T31">
-        <v>0.1465469786497982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.579566</v>
-      </c>
-      <c r="I32">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J32">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>107.663086</v>
-      </c>
-      <c r="N32">
-        <v>215.326172</v>
-      </c>
-      <c r="O32">
-        <v>0.2751823527645522</v>
-      </c>
-      <c r="P32">
-        <v>0.2057131686791961</v>
-      </c>
-      <c r="Q32">
-        <v>20.79928803355867</v>
-      </c>
-      <c r="R32">
-        <v>124.795728201352</v>
-      </c>
-      <c r="S32">
-        <v>0.001877419428025249</v>
-      </c>
-      <c r="T32">
-        <v>0.001581302193863546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.579566</v>
-      </c>
-      <c r="I33">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J33">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>27.41172733333334</v>
-      </c>
-      <c r="N33">
-        <v>82.23518200000001</v>
-      </c>
-      <c r="O33">
-        <v>0.07006323059444027</v>
-      </c>
-      <c r="P33">
-        <v>0.07856388152449202</v>
-      </c>
-      <c r="Q33">
-        <v>5.29563505455689</v>
-      </c>
-      <c r="R33">
-        <v>47.66071549101201</v>
-      </c>
-      <c r="S33">
-        <v>0.0004780032912239834</v>
-      </c>
-      <c r="T33">
-        <v>0.0006039148539238788</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.579566</v>
-      </c>
-      <c r="I34">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J34">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>82.303927</v>
-      </c>
-      <c r="N34">
-        <v>246.911781</v>
-      </c>
-      <c r="O34">
-        <v>0.2103654011331419</v>
-      </c>
-      <c r="P34">
-        <v>0.2358886724356653</v>
-      </c>
-      <c r="Q34">
-        <v>15.90018591856067</v>
-      </c>
-      <c r="R34">
-        <v>143.101673267046</v>
-      </c>
-      <c r="S34">
-        <v>0.001435208642937951</v>
-      </c>
-      <c r="T34">
-        <v>0.001813259100645022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.579566</v>
-      </c>
-      <c r="I35">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J35">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>19.3348755</v>
-      </c>
-      <c r="N35">
-        <v>38.669751</v>
-      </c>
-      <c r="O35">
-        <v>0.04941913452582716</v>
-      </c>
-      <c r="P35">
-        <v>0.03694338192314825</v>
-      </c>
-      <c r="Q35">
-        <v>3.735278818011</v>
-      </c>
-      <c r="R35">
-        <v>22.411672908066</v>
-      </c>
-      <c r="S35">
-        <v>0.0003371598590639452</v>
-      </c>
-      <c r="T35">
-        <v>0.0002839810949337689</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.579566</v>
-      </c>
-      <c r="I36">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J36">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>83.25665266666667</v>
-      </c>
-      <c r="N36">
-        <v>249.769958</v>
-      </c>
-      <c r="O36">
-        <v>0.2128005281598046</v>
-      </c>
-      <c r="P36">
-        <v>0.2386192492246122</v>
-      </c>
-      <c r="Q36">
-        <v>16.08424171980311</v>
-      </c>
-      <c r="R36">
-        <v>144.758175478228</v>
-      </c>
-      <c r="S36">
-        <v>0.001451822189350491</v>
-      </c>
-      <c r="T36">
-        <v>0.001834248846195091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.579566</v>
-      </c>
-      <c r="I37">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J37">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>71.272429</v>
-      </c>
-      <c r="N37">
-        <v>213.817287</v>
-      </c>
-      <c r="O37">
-        <v>0.1821693528222338</v>
-      </c>
-      <c r="P37">
-        <v>0.2042716462128862</v>
-      </c>
-      <c r="Q37">
-        <v>13.76902552860467</v>
-      </c>
-      <c r="R37">
-        <v>123.921229757442</v>
-      </c>
-      <c r="S37">
-        <v>0.001242842350693442</v>
-      </c>
-      <c r="T37">
-        <v>0.001570221315312527</v>
+        <v>0.0008230964387986652</v>
       </c>
     </row>
   </sheetData>
